--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1659094.918391309</v>
+        <v>1656759.807189328</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9.99112361440214</v>
+        <v>86.71148563472845</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>74.43987397210967</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>156.1766082762072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>113.2950864705997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>5.274718492613508</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.5817891454362</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>140.3578935194472</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>112.0789181391344</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>63.13355668550192</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.55695577161153</v>
+        <v>99.97427419833902</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833994</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699836</v>
       </c>
       <c r="G19" t="n">
-        <v>82.4729044930077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>172.6684446854161</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833434</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238318</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>151.8518831495031</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3433,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.250531453059</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.250531453059</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4334,7 +4334,7 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>638.3296170496764</v>
       </c>
       <c r="M3" t="n">
         <v>1272.508600828715</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1338.275847378213</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387889</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="W4" t="n">
-        <v>701.8168469648423</v>
+        <v>759.7403398450897</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>531.7507889470724</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>842.8595545333294</v>
+        <v>862.4791652013146</v>
       </c>
       <c r="C5" t="n">
-        <v>473.8970375929177</v>
+        <v>862.4791652013146</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>862.4791652013146</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>476.6909126030703</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>469.7454118538669</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X5" t="n">
-        <v>1619.598726573263</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.459394597451</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
         <v>51.24678656800311</v>
@@ -4723,16 +4723,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>1117.984498974661</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>828.5673289377006</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>600.5777780396833</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744055</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761612</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>261.3167113269578</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>250.2846652123583</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>114.2598873597744</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>448.1846595309951</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C19" t="n">
-        <v>763.7541388327643</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D19" t="n">
-        <v>613.6374994204285</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="E19" t="n">
-        <v>465.7244058380354</v>
+        <v>197.0043242297735</v>
       </c>
       <c r="F19" t="n">
-        <v>318.834458340125</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,16 +6540,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.315625093766</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6953,34 +6953,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7789,13 +7789,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8770068749576</v>
+        <v>46.45968844823015</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.5498640939289</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294766</v>
       </c>
       <c r="G19" t="n">
-        <v>83.05123379926114</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.7370056418722</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823483</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691791</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691791</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="14">
@@ -26314,37 +26314,37 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819096</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26433,28 +26433,28 @@
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>9337.200356756583</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756555</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26470,13 +26470,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-810738.6792960825</v>
       </c>
       <c r="C6" t="n">
-        <v>304013.1042798372</v>
+        <v>304013.1042798369</v>
       </c>
       <c r="D6" t="n">
-        <v>144591.8342819452</v>
+        <v>144591.8342819454</v>
       </c>
       <c r="E6" t="n">
-        <v>88773.09781048511</v>
+        <v>88738.35988504883</v>
       </c>
       <c r="F6" t="n">
-        <v>414185.5596178403</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="G6" t="n">
-        <v>414185.5596178403</v>
+        <v>414150.8216924043</v>
       </c>
       <c r="H6" t="n">
-        <v>414185.5596178403</v>
+        <v>414150.8216924043</v>
       </c>
       <c r="I6" t="n">
-        <v>414185.5596178403</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="J6" t="n">
-        <v>246580.3818078576</v>
+        <v>246545.643882422</v>
       </c>
       <c r="K6" t="n">
-        <v>414185.5596178403</v>
+        <v>414150.8216924043</v>
       </c>
       <c r="L6" t="n">
-        <v>365891.5896096493</v>
+        <v>365856.8516842137</v>
       </c>
       <c r="M6" t="n">
-        <v>329130.5316823284</v>
+        <v>329095.7937568926</v>
       </c>
       <c r="N6" t="n">
-        <v>414185.5596178402</v>
+        <v>414150.8216924044</v>
       </c>
       <c r="O6" t="n">
-        <v>414185.5596178402</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="P6" t="n">
-        <v>414185.5596178403</v>
+        <v>414150.8216924045</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,16 +26793,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,16 +26817,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>344.6919180062808</v>
+        <v>267.9715559859545</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>27.11769844746397</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>130.3463900603838</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>298.2526163023543</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>364.4563821858555</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>61.16690685177571</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546831</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>154.2498708678733</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>102.8922515735263</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.702108592965</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>343.4452429480961</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>535.6747904601043</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.86448192629832</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
